--- a/nonlin-simulations/steadyState.xlsx
+++ b/nonlin-simulations/steadyState.xlsx
@@ -13,7 +13,1423 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="708">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>yg</t>
+  </si>
+  <si>
+    <t>yg_gap</t>
+  </si>
+  <si>
+    <t>yg_tnd</t>
+  </si>
+  <si>
+    <t>nga_to_4ny</t>
+  </si>
+  <si>
+    <t>vg_to_ny</t>
+  </si>
+  <si>
+    <t>vg_to_ny_gap</t>
+  </si>
+  <si>
+    <t>zg</t>
+  </si>
+  <si>
+    <t>roc_yg</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>yh</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>roc_ny</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>y_gap</t>
+  </si>
+  <si>
+    <t>y_tnd</t>
+  </si>
+  <si>
+    <t>yh_tnd</t>
+  </si>
+  <si>
+    <t>yh_gap</t>
+  </si>
+  <si>
+    <t>roc_y_tnd</t>
+  </si>
+  <si>
+    <t>fws_y</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>roc_cpi</t>
+  </si>
+  <si>
+    <t>roc4_cpi</t>
+  </si>
+  <si>
+    <t>roc_cpi_exp</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>unc_r</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rr_gap</t>
+  </si>
+  <si>
+    <t>rr_tnd</t>
+  </si>
+  <si>
+    <t>r_tnd</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>e_exp</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>re_tnd</t>
+  </si>
+  <si>
+    <t>roc_re_tnd</t>
+  </si>
+  <si>
+    <t>re_gap</t>
+  </si>
+  <si>
+    <t>roc_re_gap</t>
+  </si>
+  <si>
+    <t>roc_re</t>
+  </si>
+  <si>
+    <t>roc_e_gap</t>
+  </si>
+  <si>
+    <t>prem</t>
+  </si>
+  <si>
+    <t>prem_tnd</t>
+  </si>
+  <si>
+    <t>prem_gap</t>
+  </si>
+  <si>
+    <t>yw_gap</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>rrw_tnd</t>
+  </si>
+  <si>
+    <t>cpiw</t>
+  </si>
+  <si>
+    <t>roc_cpiw</t>
+  </si>
+  <si>
+    <t>shock_yg</t>
+  </si>
+  <si>
+    <t>shock_vg_to_ny</t>
+  </si>
+  <si>
+    <t>shock_yh_gap</t>
+  </si>
+  <si>
+    <t>tune_yh_gap</t>
+  </si>
+  <si>
+    <t>shock_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>tune_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>shock_y_tnd</t>
+  </si>
+  <si>
+    <t>shock_roc_py</t>
+  </si>
+  <si>
+    <t>shock_roc_cpi</t>
+  </si>
+  <si>
+    <t>tune_roc_cpi</t>
+  </si>
+  <si>
+    <t>shock_r</t>
+  </si>
+  <si>
+    <t>tune_r</t>
+  </si>
+  <si>
+    <t>shock_e</t>
+  </si>
+  <si>
+    <t>shock_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>shock_prem_gap</t>
+  </si>
+  <si>
+    <t>tune_prem_gap</t>
+  </si>
+  <si>
+    <t>shock_rr_tnd</t>
+  </si>
+  <si>
+    <t>tune_rr_tnd</t>
+  </si>
+  <si>
+    <t>tune_yw_gap</t>
+  </si>
+  <si>
+    <t>tune_rw</t>
+  </si>
+  <si>
+    <t>tune_rrw_tnd</t>
+  </si>
+  <si>
+    <t>tune_roc_cpiw</t>
+  </si>
+  <si>
+    <t>shock_yw_gap</t>
+  </si>
+  <si>
+    <t>shock_rw</t>
+  </si>
+  <si>
+    <t>shock_rrw_tnd</t>
+  </si>
+  <si>
+    <t>shock_roc_cpiw</t>
+  </si>
+  <si>
+    <t>ss_yg_to_y</t>
+  </si>
+  <si>
+    <t>ss_nga_to_4ny</t>
+  </si>
+  <si>
+    <t>c0_yg</t>
+  </si>
+  <si>
+    <t>c1_yg</t>
+  </si>
+  <si>
+    <t>c0_vg_to_ny</t>
+  </si>
+  <si>
+    <t>c1_vg_to_ny</t>
+  </si>
+  <si>
+    <t>c1_zg</t>
+  </si>
+  <si>
+    <t>c2_zg</t>
+  </si>
+  <si>
+    <t>c3_zg</t>
+  </si>
+  <si>
+    <t>c4_zg</t>
+  </si>
+  <si>
+    <t>c5_zg</t>
+  </si>
+  <si>
+    <t>ss_roc_y</t>
+  </si>
+  <si>
+    <t>ss_roc_cpi</t>
+  </si>
+  <si>
+    <t>ss_roc_re</t>
+  </si>
+  <si>
+    <t>ss_disc_fws_y</t>
+  </si>
+  <si>
+    <t>ss_prem</t>
+  </si>
+  <si>
+    <t>c0_yh_gap</t>
+  </si>
+  <si>
+    <t>c1_yh_gap</t>
+  </si>
+  <si>
+    <t>c2_yh_gap</t>
+  </si>
+  <si>
+    <t>c4_yh_gap</t>
+  </si>
+  <si>
+    <t>c5_yh_gap</t>
+  </si>
+  <si>
+    <t>c6_yh_gap</t>
+  </si>
+  <si>
+    <t>c7_yh_gap</t>
+  </si>
+  <si>
+    <t>c1_fws_y</t>
+  </si>
+  <si>
+    <t>c0_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>c1_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>c0_roc_cpi</t>
+  </si>
+  <si>
+    <t>c1_roc_cpi</t>
+  </si>
+  <si>
+    <t>c2_roc_cpi</t>
+  </si>
+  <si>
+    <t>c3_roc_cpi</t>
+  </si>
+  <si>
+    <t>c4_roc_cpi</t>
+  </si>
+  <si>
+    <t>c1_roc_cpi_exp</t>
+  </si>
+  <si>
+    <t>c0_r</t>
+  </si>
+  <si>
+    <t>c1_r</t>
+  </si>
+  <si>
+    <t>c2_r</t>
+  </si>
+  <si>
+    <t>c3_r</t>
+  </si>
+  <si>
+    <t>c0_rr_tnd</t>
+  </si>
+  <si>
+    <t>c1_e_exp</t>
+  </si>
+  <si>
+    <t>c1_prem</t>
+  </si>
+  <si>
+    <t>c0_prem_gap</t>
+  </si>
+  <si>
+    <t>c1_e</t>
+  </si>
+  <si>
+    <t>c0_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>c1_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>ss_rrw</t>
+  </si>
+  <si>
+    <t>ss_roc_cpiw</t>
+  </si>
+  <si>
+    <t>c0_yw_gap</t>
+  </si>
+  <si>
+    <t>c0_rw</t>
+  </si>
+  <si>
+    <t>c0_rrw_tnd</t>
+  </si>
+  <si>
+    <t>c0_roc_cpiw</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Real government demand</t>
+  </si>
+  <si>
+    <t>Real government demand gap</t>
+  </si>
+  <si>
+    <t>Real government demand trend</t>
+  </si>
+  <si>
+    <t>Net government assets to GDP ratio, annualized</t>
+  </si>
+  <si>
+    <t>Net government revenues to GDP ratio</t>
+  </si>
+  <si>
+    <t>Net government revenues to GDP ratio gap</t>
+  </si>
+  <si>
+    <t>Sovereign risk</t>
+  </si>
+  <si>
+    <t>Real government demand, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
+  <si>
+    <t>Real private demand</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>GDP deflator</t>
+  </si>
+  <si>
+    <t>Real GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP deflator, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP gap</t>
+  </si>
+  <si>
+    <t>Real GDP trend (potential)</t>
+  </si>
+  <si>
+    <t>Real private demand trend (potential)</t>
+  </si>
+  <si>
+    <t>Real private demand gap</t>
+  </si>
+  <si>
+    <t>Real GDP trend (potential), Rate of change</t>
+  </si>
+  <si>
+    <t>Real future income proxy</t>
+  </si>
+  <si>
+    <t>Consumer prices</t>
+  </si>
+  <si>
+    <t>Consumer prices, Rate of change</t>
+  </si>
+  <si>
+    <t>Consumer prices, Four-quarter rate of change</t>
+  </si>
+  <si>
+    <t>Inflation expectations</t>
+  </si>
+  <si>
+    <t>Short-term cash rate</t>
+  </si>
+  <si>
+    <t>Unconstrained short-term cash rate</t>
+  </si>
+  <si>
+    <t>Real short-term rate</t>
+  </si>
+  <si>
+    <t>Real short-term rate gap</t>
+  </si>
+  <si>
+    <t>Real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Short-term cash rate trend</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate expectations</t>
+  </si>
+  <si>
+    <t>Real exchange rate</t>
+  </si>
+  <si>
+    <t>Real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Real exchange rate gap</t>
+  </si>
+  <si>
+    <t>Real exchange rate gap, Rate of change</t>
+  </si>
+  <si>
+    <t>Real exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate depreciation gap</t>
+  </si>
+  <si>
+    <t>Interest disparity</t>
+  </si>
+  <si>
+    <t>Interest disparity trend</t>
+  </si>
+  <si>
+    <t>Interest disparity gap</t>
+  </si>
+  <si>
+    <t>Foreign demand gap</t>
+  </si>
+  <si>
+    <t>Foreign short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Foreign real short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Foreign CPI</t>
+  </si>
+  <si>
+    <t>Foreign CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>Shock to real government demand</t>
+  </si>
+  <si>
+    <t>Shock to net government revenues</t>
+  </si>
+  <si>
+    <t>Shock to GDP gap</t>
+  </si>
+  <si>
+    <t>Tunes on GDP gap</t>
+  </si>
+  <si>
+    <t>Shock to GDP trend growth</t>
+  </si>
+  <si>
+    <t>Tune on GDP trend growth</t>
+  </si>
+  <si>
+    <t>Shock to GDP trend level</t>
+  </si>
+  <si>
+    <t>Shock to GDP deflator</t>
+  </si>
+  <si>
+    <t>Shock to CPI</t>
+  </si>
+  <si>
+    <t>Tune on CPI</t>
+  </si>
+  <si>
+    <t>Shock to short term cash rate, LCY</t>
+  </si>
+  <si>
+    <t>Tune on short term cash rate, LCY</t>
+  </si>
+  <si>
+    <t>Shock to exchange rate</t>
+  </si>
+  <si>
+    <t>Shock to real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Shock to autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Tune on autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Shock to real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on foreign demand gap</t>
+  </si>
+  <si>
+    <t>Tune on foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Tune on real foreign short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on to foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>Shock to foreign demand gap</t>
+  </si>
+  <si>
+    <t>Shock to foreign short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Shock to real foreign short-term rate trend, FCY</t>
+  </si>
+  <si>
+    <t>Shock to foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>S/S Real GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S Real exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S Discount rate in future income proxy</t>
+  </si>
+  <si>
+    <t>Autoregression in GDP Gap</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to future income proxy</t>
+  </si>
+  <si>
+    <t>Response i nGDP gap to real short-term rate</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to real exchange rate gap</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to foreign demand</t>
+  </si>
+  <si>
+    <t>Autoregression in real GDP trend</t>
+  </si>
+  <si>
+    <t>Hysteresis in real GDP trend</t>
+  </si>
+  <si>
+    <t>Autoregression in CPI inflation</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to GDP gap</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to RER gap</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to RER gap change</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in inflation expectations</t>
+  </si>
+  <si>
+    <t>Autoregression in short-term rate</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to inflation</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to GDP gap</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to FX gap</t>
+  </si>
+  <si>
+    <t>Autoregression in real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in exchange rate expectations</t>
+  </si>
+  <si>
+    <t>Response in interest disparity to lending conditions</t>
+  </si>
+  <si>
+    <t>Autoregression in autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Autoregression in real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Response in real exchange rate trend to real exchange rate gap</t>
+  </si>
+  <si>
+    <t>S/S Real short-term rate, foreign currency</t>
+  </si>
+  <si>
+    <t>S/S Foreign CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign demand gap</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Autoregression in real foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>yg</t>
+  </si>
+  <si>
+    <t>yg_gap</t>
+  </si>
+  <si>
+    <t>yg_tnd</t>
+  </si>
+  <si>
+    <t>nga_to_4ny</t>
+  </si>
+  <si>
+    <t>vg_to_ny</t>
+  </si>
+  <si>
+    <t>vg_to_ny_gap</t>
+  </si>
+  <si>
+    <t>zg</t>
+  </si>
+  <si>
+    <t>roc_yg</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>yh</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>roc_ny</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>y_gap</t>
+  </si>
+  <si>
+    <t>y_tnd</t>
+  </si>
+  <si>
+    <t>yh_tnd</t>
+  </si>
+  <si>
+    <t>yh_gap</t>
+  </si>
+  <si>
+    <t>roc_y_tnd</t>
+  </si>
+  <si>
+    <t>fws_y</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>roc_cpi</t>
+  </si>
+  <si>
+    <t>roc4_cpi</t>
+  </si>
+  <si>
+    <t>roc_cpi_exp</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>unc_r</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rr_gap</t>
+  </si>
+  <si>
+    <t>rr_tnd</t>
+  </si>
+  <si>
+    <t>r_tnd</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>e_exp</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>re_tnd</t>
+  </si>
+  <si>
+    <t>roc_re_tnd</t>
+  </si>
+  <si>
+    <t>re_gap</t>
+  </si>
+  <si>
+    <t>roc_re_gap</t>
+  </si>
+  <si>
+    <t>roc_re</t>
+  </si>
+  <si>
+    <t>roc_e_gap</t>
+  </si>
+  <si>
+    <t>prem</t>
+  </si>
+  <si>
+    <t>prem_tnd</t>
+  </si>
+  <si>
+    <t>prem_gap</t>
+  </si>
+  <si>
+    <t>yw_gap</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>rrw_tnd</t>
+  </si>
+  <si>
+    <t>cpiw</t>
+  </si>
+  <si>
+    <t>roc_cpiw</t>
+  </si>
+  <si>
+    <t>shock_yg</t>
+  </si>
+  <si>
+    <t>shock_vg_to_ny</t>
+  </si>
+  <si>
+    <t>shock_yh_gap</t>
+  </si>
+  <si>
+    <t>tune_yh_gap</t>
+  </si>
+  <si>
+    <t>shock_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>tune_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>shock_y_tnd</t>
+  </si>
+  <si>
+    <t>shock_roc_py</t>
+  </si>
+  <si>
+    <t>shock_roc_cpi</t>
+  </si>
+  <si>
+    <t>tune_roc_cpi</t>
+  </si>
+  <si>
+    <t>shock_r</t>
+  </si>
+  <si>
+    <t>tune_r</t>
+  </si>
+  <si>
+    <t>shock_e</t>
+  </si>
+  <si>
+    <t>shock_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>shock_prem_gap</t>
+  </si>
+  <si>
+    <t>tune_prem_gap</t>
+  </si>
+  <si>
+    <t>shock_rr_tnd</t>
+  </si>
+  <si>
+    <t>tune_rr_tnd</t>
+  </si>
+  <si>
+    <t>tune_yw_gap</t>
+  </si>
+  <si>
+    <t>tune_rw</t>
+  </si>
+  <si>
+    <t>tune_rrw_tnd</t>
+  </si>
+  <si>
+    <t>tune_roc_cpiw</t>
+  </si>
+  <si>
+    <t>shock_yw_gap</t>
+  </si>
+  <si>
+    <t>shock_rw</t>
+  </si>
+  <si>
+    <t>shock_rrw_tnd</t>
+  </si>
+  <si>
+    <t>shock_roc_cpiw</t>
+  </si>
+  <si>
+    <t>ss_yg_to_y</t>
+  </si>
+  <si>
+    <t>ss_nga_to_4ny</t>
+  </si>
+  <si>
+    <t>c0_yg</t>
+  </si>
+  <si>
+    <t>c1_yg</t>
+  </si>
+  <si>
+    <t>c0_vg_to_ny</t>
+  </si>
+  <si>
+    <t>c1_vg_to_ny</t>
+  </si>
+  <si>
+    <t>c1_zg</t>
+  </si>
+  <si>
+    <t>c2_zg</t>
+  </si>
+  <si>
+    <t>c3_zg</t>
+  </si>
+  <si>
+    <t>c4_zg</t>
+  </si>
+  <si>
+    <t>c5_zg</t>
+  </si>
+  <si>
+    <t>ss_roc_y</t>
+  </si>
+  <si>
+    <t>ss_roc_cpi</t>
+  </si>
+  <si>
+    <t>ss_roc_re</t>
+  </si>
+  <si>
+    <t>ss_disc_fws_y</t>
+  </si>
+  <si>
+    <t>ss_prem</t>
+  </si>
+  <si>
+    <t>c0_yh_gap</t>
+  </si>
+  <si>
+    <t>c1_yh_gap</t>
+  </si>
+  <si>
+    <t>c2_yh_gap</t>
+  </si>
+  <si>
+    <t>c4_yh_gap</t>
+  </si>
+  <si>
+    <t>c5_yh_gap</t>
+  </si>
+  <si>
+    <t>c6_yh_gap</t>
+  </si>
+  <si>
+    <t>c7_yh_gap</t>
+  </si>
+  <si>
+    <t>c1_fws_y</t>
+  </si>
+  <si>
+    <t>c0_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>c1_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>c0_roc_cpi</t>
+  </si>
+  <si>
+    <t>c1_roc_cpi</t>
+  </si>
+  <si>
+    <t>c2_roc_cpi</t>
+  </si>
+  <si>
+    <t>c3_roc_cpi</t>
+  </si>
+  <si>
+    <t>c4_roc_cpi</t>
+  </si>
+  <si>
+    <t>c1_roc_cpi_exp</t>
+  </si>
+  <si>
+    <t>c0_r</t>
+  </si>
+  <si>
+    <t>c1_r</t>
+  </si>
+  <si>
+    <t>c2_r</t>
+  </si>
+  <si>
+    <t>c3_r</t>
+  </si>
+  <si>
+    <t>c0_rr_tnd</t>
+  </si>
+  <si>
+    <t>c1_e_exp</t>
+  </si>
+  <si>
+    <t>c1_prem</t>
+  </si>
+  <si>
+    <t>c0_prem_gap</t>
+  </si>
+  <si>
+    <t>c1_e</t>
+  </si>
+  <si>
+    <t>c0_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>c1_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>ss_rrw</t>
+  </si>
+  <si>
+    <t>ss_roc_cpiw</t>
+  </si>
+  <si>
+    <t>c0_yw_gap</t>
+  </si>
+  <si>
+    <t>c0_rw</t>
+  </si>
+  <si>
+    <t>c0_rrw_tnd</t>
+  </si>
+  <si>
+    <t>c0_roc_cpiw</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Real government demand</t>
+  </si>
+  <si>
+    <t>Real government demand gap</t>
+  </si>
+  <si>
+    <t>Real government demand trend</t>
+  </si>
+  <si>
+    <t>Net government assets to GDP ratio, annualized</t>
+  </si>
+  <si>
+    <t>Net government revenues to GDP ratio</t>
+  </si>
+  <si>
+    <t>Net government revenues to GDP ratio gap</t>
+  </si>
+  <si>
+    <t>Sovereign risk</t>
+  </si>
+  <si>
+    <t>Real government demand, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
+  <si>
+    <t>Real private demand</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>GDP deflator</t>
+  </si>
+  <si>
+    <t>Real GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP deflator, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP gap</t>
+  </si>
+  <si>
+    <t>Real GDP trend (potential)</t>
+  </si>
+  <si>
+    <t>Real private demand trend (potential)</t>
+  </si>
+  <si>
+    <t>Real private demand gap</t>
+  </si>
+  <si>
+    <t>Real GDP trend (potential), Rate of change</t>
+  </si>
+  <si>
+    <t>Real future income proxy</t>
+  </si>
+  <si>
+    <t>Consumer prices</t>
+  </si>
+  <si>
+    <t>Consumer prices, Rate of change</t>
+  </si>
+  <si>
+    <t>Consumer prices, Four-quarter rate of change</t>
+  </si>
+  <si>
+    <t>Inflation expectations</t>
+  </si>
+  <si>
+    <t>Short-term cash rate</t>
+  </si>
+  <si>
+    <t>Unconstrained short-term cash rate</t>
+  </si>
+  <si>
+    <t>Real short-term rate</t>
+  </si>
+  <si>
+    <t>Real short-term rate gap</t>
+  </si>
+  <si>
+    <t>Real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Short-term cash rate trend</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate expectations</t>
+  </si>
+  <si>
+    <t>Real exchange rate</t>
+  </si>
+  <si>
+    <t>Real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Real exchange rate gap</t>
+  </si>
+  <si>
+    <t>Real exchange rate gap, Rate of change</t>
+  </si>
+  <si>
+    <t>Real exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate depreciation gap</t>
+  </si>
+  <si>
+    <t>Interest disparity</t>
+  </si>
+  <si>
+    <t>Interest disparity trend</t>
+  </si>
+  <si>
+    <t>Interest disparity gap</t>
+  </si>
+  <si>
+    <t>Foreign demand gap</t>
+  </si>
+  <si>
+    <t>Foreign short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Foreign real short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Foreign CPI</t>
+  </si>
+  <si>
+    <t>Foreign CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>Shock to real government demand</t>
+  </si>
+  <si>
+    <t>Shock to net government revenues</t>
+  </si>
+  <si>
+    <t>Shock to GDP gap</t>
+  </si>
+  <si>
+    <t>Tunes on GDP gap</t>
+  </si>
+  <si>
+    <t>Shock to GDP trend growth</t>
+  </si>
+  <si>
+    <t>Tune on GDP trend growth</t>
+  </si>
+  <si>
+    <t>Shock to GDP trend level</t>
+  </si>
+  <si>
+    <t>Shock to GDP deflator</t>
+  </si>
+  <si>
+    <t>Shock to CPI</t>
+  </si>
+  <si>
+    <t>Tune on CPI</t>
+  </si>
+  <si>
+    <t>Shock to short term cash rate, LCY</t>
+  </si>
+  <si>
+    <t>Tune on short term cash rate, LCY</t>
+  </si>
+  <si>
+    <t>Shock to exchange rate</t>
+  </si>
+  <si>
+    <t>Shock to real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Shock to autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Tune on autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Shock to real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on foreign demand gap</t>
+  </si>
+  <si>
+    <t>Tune on foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Tune on real foreign short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on to foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>Shock to foreign demand gap</t>
+  </si>
+  <si>
+    <t>Shock to foreign short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Shock to real foreign short-term rate trend, FCY</t>
+  </si>
+  <si>
+    <t>Shock to foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>S/S Real GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S Real exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S Discount rate in future income proxy</t>
+  </si>
+  <si>
+    <t>Autoregression in GDP Gap</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to future income proxy</t>
+  </si>
+  <si>
+    <t>Response i nGDP gap to real short-term rate</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to real exchange rate gap</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to foreign demand</t>
+  </si>
+  <si>
+    <t>Autoregression in real GDP trend</t>
+  </si>
+  <si>
+    <t>Hysteresis in real GDP trend</t>
+  </si>
+  <si>
+    <t>Autoregression in CPI inflation</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to GDP gap</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to RER gap</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to RER gap change</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in inflation expectations</t>
+  </si>
+  <si>
+    <t>Autoregression in short-term rate</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to inflation</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to GDP gap</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to FX gap</t>
+  </si>
+  <si>
+    <t>Autoregression in real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in exchange rate expectations</t>
+  </si>
+  <si>
+    <t>Response in interest disparity to lending conditions</t>
+  </si>
+  <si>
+    <t>Autoregression in autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Autoregression in real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Response in real exchange rate trend to real exchange rate gap</t>
+  </si>
+  <si>
+    <t>S/S Real short-term rate, foreign currency</t>
+  </si>
+  <si>
+    <t>S/S Foreign CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign demand gap</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Autoregression in real foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -741,7 +2157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -750,13 +2166,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,21 +2197,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>126</v>
+        <v>598</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>127</v>
+        <v>599</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>128</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="B2" s="0">
         <v>0.20000000000000001</v>
@@ -800,12 +2220,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>129</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -814,12 +2234,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>130</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>475</v>
       </c>
       <c r="B4" s="0">
         <v>0.20000000000000001</v>
@@ -828,40 +2248,40 @@
         <v>1.01227223</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>131</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>476</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.80000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>132</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="B6" s="0">
-        <v>0.20262851000000001</v>
+        <v>0.18510124999999999</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>133</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>478</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -870,26 +2290,26 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>134</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0138519</v>
+        <v>0.00563446</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>135</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="B9" s="0">
         <v>1.01227223</v>
@@ -898,12 +2318,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>136</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -912,12 +2332,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>137</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="B11" s="0">
         <v>0.80000000000000004</v>
@@ -926,12 +2346,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>138</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>483</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -940,12 +2360,12 @@
         <v>1.0246950800000001</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>139</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>484</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -954,12 +2374,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>140</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>485</v>
       </c>
       <c r="B14" s="0">
         <v>1.01227223</v>
@@ -968,12 +2388,12 @@
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>141</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>486</v>
       </c>
       <c r="B15" s="0">
         <v>1.0246950800000001</v>
@@ -982,12 +2402,12 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>142</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>487</v>
       </c>
       <c r="B16" s="0">
         <v>1.01227223</v>
@@ -996,12 +2416,12 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>143</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>488</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -1010,12 +2430,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>144</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>489</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -1024,12 +2444,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>145</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="B19" s="0">
         <v>0.80000000000000004</v>
@@ -1038,12 +2458,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>146</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -1052,12 +2472,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>147</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="B21" s="0">
         <v>1.01227223</v>
@@ -1066,26 +2486,26 @@
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>148</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>493</v>
       </c>
       <c r="B22" s="0">
-        <v>0.98986856999999995</v>
+        <v>0.99074494000000002</v>
       </c>
       <c r="C22" s="0">
         <v>1.01227223</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>149</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>494</v>
       </c>
       <c r="B23" s="0">
         <v>1</v>
@@ -1094,12 +2514,12 @@
         <v>1.01227223</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>150</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>495</v>
       </c>
       <c r="B24" s="0">
         <v>1.01227223</v>
@@ -1108,12 +2528,12 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>151</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="B25" s="0">
         <v>1.05</v>
@@ -1122,12 +2542,12 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>152</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>497</v>
       </c>
       <c r="B26" s="0">
         <v>1.01227223</v>
@@ -1136,54 +2556,54 @@
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>153</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>498</v>
       </c>
       <c r="B27" s="0">
-        <v>0.02553677</v>
+        <v>0.017061739999999999</v>
       </c>
       <c r="C27" s="0">
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>154</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>499</v>
       </c>
       <c r="B28" s="0">
-        <v>0.02553677</v>
+        <v>0.017061739999999999</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>155</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="B29" s="0">
-        <v>0.013103719999999999</v>
+        <v>0.00473144</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>156</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>501</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -1192,40 +2612,40 @@
         <v>0</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>157</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>502</v>
       </c>
       <c r="B31" s="0">
-        <v>0.013103719999999999</v>
+        <v>0.00473144</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>158</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>503</v>
       </c>
       <c r="B32" s="0">
-        <v>0.02553677</v>
+        <v>0.017061739999999999</v>
       </c>
       <c r="C32" s="0">
         <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>159</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>504</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -1234,12 +2654,12 @@
         <v>1.0021986199999999</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>160</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>505</v>
       </c>
       <c r="B34" s="0">
         <v>1.0021986199999999</v>
@@ -1248,12 +2668,12 @@
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>161</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>506</v>
       </c>
       <c r="B35" s="0">
         <v>1.0021986199999999</v>
@@ -1262,12 +2682,12 @@
         <v>1.0021986199999999</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>162</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>507</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -1276,12 +2696,12 @@
         <v>0.99496205999999998</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>163</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>508</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -1290,12 +2710,12 @@
         <v>0.99496205999999998</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>164</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>509</v>
       </c>
       <c r="B38" s="0">
         <v>0.99496205999999998</v>
@@ -1304,12 +2724,12 @@
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>164</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -1318,12 +2738,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>165</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>511</v>
       </c>
       <c r="B40" s="0">
         <v>1</v>
@@ -1332,12 +2752,12 @@
         <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>166</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>512</v>
       </c>
       <c r="B41" s="0">
         <v>0.99496205999999998</v>
@@ -1346,12 +2766,12 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>167</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>513</v>
       </c>
       <c r="B42" s="0">
         <v>1</v>
@@ -1360,12 +2780,12 @@
         <v>1</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>168</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="B43" s="0">
         <v>0.0025000000000000001</v>
@@ -1374,12 +2794,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>169</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>515</v>
       </c>
       <c r="B44" s="0">
         <v>0.0025000000000000001</v>
@@ -1388,12 +2808,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>170</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>44</v>
+        <v>516</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -1402,12 +2822,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>171</v>
+        <v>643</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="B46" s="0">
         <v>1</v>
@@ -1416,12 +2836,12 @@
         <v>1</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>172</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>46</v>
+        <v>518</v>
       </c>
       <c r="B47" s="0">
         <v>0.0065960000000000003</v>
@@ -1430,12 +2850,12 @@
         <v>0</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>173</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>47</v>
+        <v>519</v>
       </c>
       <c r="B48" s="0">
         <v>0.0016249999999999999</v>
@@ -1444,12 +2864,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>174</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>48</v>
+        <v>520</v>
       </c>
       <c r="B49" s="0">
         <v>1</v>
@@ -1458,12 +2878,12 @@
         <v>1.00496293</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>175</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>49</v>
+        <v>521</v>
       </c>
       <c r="B50" s="0">
         <v>1.00496293</v>
@@ -1472,12 +2892,12 @@
         <v>1</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>176</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>50</v>
+        <v>522</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -1486,12 +2906,12 @@
         <v>0</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>177</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>51</v>
+        <v>523</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -1500,12 +2920,12 @@
         <v>0</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>178</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>52</v>
+        <v>524</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -1514,12 +2934,12 @@
         <v>0</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>179</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>53</v>
+        <v>525</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -1528,12 +2948,12 @@
         <v>0</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>180</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>54</v>
+        <v>526</v>
       </c>
       <c r="B55" s="0">
         <v>0</v>
@@ -1542,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>181</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>55</v>
+        <v>527</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -1556,12 +2976,12 @@
         <v>0</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>182</v>
+        <v>654</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
@@ -1570,12 +2990,12 @@
         <v>0</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>183</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>57</v>
+        <v>529</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -1584,12 +3004,12 @@
         <v>0</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>184</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>58</v>
+        <v>530</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -1598,12 +3018,12 @@
         <v>0</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>185</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>59</v>
+        <v>531</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -1612,12 +3032,12 @@
         <v>0</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>186</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>60</v>
+        <v>532</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -1626,12 +3046,12 @@
         <v>0</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>187</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>61</v>
+        <v>533</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
@@ -1640,12 +3060,12 @@
         <v>0</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>188</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>62</v>
+        <v>534</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -1654,12 +3074,12 @@
         <v>0</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>189</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>63</v>
+        <v>535</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -1668,12 +3088,12 @@
         <v>0</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>190</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>64</v>
+        <v>536</v>
       </c>
       <c r="B65" s="0">
         <v>0</v>
@@ -1682,12 +3102,12 @@
         <v>0</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>191</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>65</v>
+        <v>537</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
@@ -1696,12 +3116,12 @@
         <v>0</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>192</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>66</v>
+        <v>538</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -1710,12 +3130,12 @@
         <v>0</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>193</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>67</v>
+        <v>539</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -1724,12 +3144,12 @@
         <v>0</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>194</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>68</v>
+        <v>540</v>
       </c>
       <c r="B69" s="0">
         <v>0</v>
@@ -1738,12 +3158,12 @@
         <v>0</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>195</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="B70" s="0">
         <v>0</v>
@@ -1752,12 +3172,12 @@
         <v>0</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>196</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>70</v>
+        <v>542</v>
       </c>
       <c r="B71" s="0">
         <v>0</v>
@@ -1766,12 +3186,12 @@
         <v>0</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>197</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>71</v>
+        <v>543</v>
       </c>
       <c r="B72" s="0">
         <v>0</v>
@@ -1780,12 +3200,12 @@
         <v>0</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>198</v>
+        <v>670</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>72</v>
+        <v>544</v>
       </c>
       <c r="B73" s="0">
         <v>0</v>
@@ -1794,12 +3214,12 @@
         <v>0</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>199</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>73</v>
+        <v>545</v>
       </c>
       <c r="B74" s="0">
         <v>0</v>
@@ -1808,12 +3228,12 @@
         <v>0</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>200</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="B75" s="0">
         <v>0</v>
@@ -1822,12 +3242,12 @@
         <v>0</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>201</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>75</v>
+        <v>547</v>
       </c>
       <c r="B76" s="0">
         <v>0</v>
@@ -1836,12 +3256,12 @@
         <v>0</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>202</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>76</v>
+        <v>548</v>
       </c>
       <c r="B77" s="0">
         <v>0.20000000000000001</v>
@@ -1853,10 +3273,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>77</v>
+        <v>549</v>
       </c>
       <c r="B78" s="0">
-        <v>-0.80000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="C78" s="0">
         <v>0</v>
@@ -1865,7 +3285,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="B79" s="0">
         <v>0.80000000000000004</v>
@@ -1877,7 +3297,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="B80" s="0">
         <v>0.10000000000000001</v>
@@ -1889,7 +3309,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="B81" s="0">
         <v>0.94999999999999996</v>
@@ -1901,7 +3321,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>81</v>
+        <v>553</v>
       </c>
       <c r="B82" s="0">
         <v>0.20000000000000001</v>
@@ -1913,7 +3333,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="B83" s="0">
         <v>0.00125</v>
@@ -1925,7 +3345,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>83</v>
+        <v>555</v>
       </c>
       <c r="B84" s="0">
         <v>0.10000000000000001</v>
@@ -1937,7 +3357,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>84</v>
+        <v>556</v>
       </c>
       <c r="B85" s="0">
         <v>-1.2</v>
@@ -1949,7 +3369,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>85</v>
+        <v>557</v>
       </c>
       <c r="B86" s="0">
         <v>-0.00125</v>
@@ -1961,7 +3381,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>86</v>
+        <v>558</v>
       </c>
       <c r="B87" s="0">
         <v>0.048750000000000002</v>
@@ -1973,7 +3393,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>87</v>
+        <v>559</v>
       </c>
       <c r="B88" s="0">
         <v>1.01227223</v>
@@ -1982,12 +3402,12 @@
         <v>0</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>203</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>88</v>
+        <v>560</v>
       </c>
       <c r="B89" s="0">
         <v>1.01227223</v>
@@ -1996,12 +3416,12 @@
         <v>0</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>204</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>89</v>
+        <v>561</v>
       </c>
       <c r="B90" s="0">
         <v>0.99496205999999998</v>
@@ -2010,12 +3430,12 @@
         <v>0</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>205</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>90</v>
+        <v>562</v>
       </c>
       <c r="B91" s="0">
         <v>0.050000000000000003</v>
@@ -2024,12 +3444,12 @@
         <v>0</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>206</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>91</v>
+        <v>563</v>
       </c>
       <c r="B92" s="0">
         <v>0.0025000000000000001</v>
@@ -2041,7 +3461,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>92</v>
+        <v>564</v>
       </c>
       <c r="B93" s="0">
         <v>0.84999999999999998</v>
@@ -2050,12 +3470,12 @@
         <v>0</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>207</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>93</v>
+        <v>565</v>
       </c>
       <c r="B94" s="0">
         <v>0.10000000000000001</v>
@@ -2064,12 +3484,12 @@
         <v>0</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>208</v>
+        <v>680</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>94</v>
+        <v>566</v>
       </c>
       <c r="B95" s="0">
         <v>0.029999999999999999</v>
@@ -2078,12 +3498,12 @@
         <v>0</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>209</v>
+        <v>681</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>95</v>
+        <v>567</v>
       </c>
       <c r="B96" s="0">
         <v>0.050000000000000003</v>
@@ -2092,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>210</v>
+        <v>682</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>96</v>
+        <v>568</v>
       </c>
       <c r="B97" s="0">
         <v>0.10000000000000001</v>
@@ -2106,12 +3526,12 @@
         <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>211</v>
+        <v>683</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>97</v>
+        <v>569</v>
       </c>
       <c r="B98" s="0">
         <v>0.5</v>
@@ -2123,7 +3543,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>98</v>
+        <v>570</v>
       </c>
       <c r="B99" s="0">
         <v>0.050000000000000003</v>
@@ -2135,7 +3555,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>99</v>
+        <v>571</v>
       </c>
       <c r="B100" s="0">
         <v>0.5</v>
@@ -2147,7 +3567,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>100</v>
+        <v>572</v>
       </c>
       <c r="B101" s="0">
         <v>0.90000000000000002</v>
@@ -2156,12 +3576,12 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>212</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>101</v>
+        <v>573</v>
       </c>
       <c r="B102" s="0">
         <v>0</v>
@@ -2170,12 +3590,12 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>213</v>
+        <v>685</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>102</v>
+        <v>574</v>
       </c>
       <c r="B103" s="0">
         <v>0.65000000000000002</v>
@@ -2184,12 +3604,12 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>214</v>
+        <v>686</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>103</v>
+        <v>575</v>
       </c>
       <c r="B104" s="0">
         <v>0.059999999999999998</v>
@@ -2198,12 +3618,12 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>215</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>104</v>
+        <v>576</v>
       </c>
       <c r="B105" s="0">
         <v>0.02</v>
@@ -2212,12 +3632,12 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>216</v>
+        <v>688</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>105</v>
+        <v>577</v>
       </c>
       <c r="B106" s="0">
         <v>0.02</v>
@@ -2226,12 +3646,12 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>217</v>
+        <v>689</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>106</v>
+        <v>578</v>
       </c>
       <c r="B107" s="0">
         <v>0.5</v>
@@ -2243,7 +3663,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>107</v>
+        <v>579</v>
       </c>
       <c r="B108" s="0">
         <v>0.84999999999999998</v>
@@ -2252,12 +3672,12 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>218</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>108</v>
+        <v>580</v>
       </c>
       <c r="B109" s="0">
         <v>0.80000000000000004</v>
@@ -2266,12 +3686,12 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>219</v>
+        <v>691</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>109</v>
+        <v>581</v>
       </c>
       <c r="B110" s="0">
         <v>2</v>
@@ -2280,12 +3700,12 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>220</v>
+        <v>692</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>110</v>
+        <v>582</v>
       </c>
       <c r="B111" s="0">
         <v>0</v>
@@ -2294,12 +3714,12 @@
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>221</v>
+        <v>693</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>111</v>
+        <v>583</v>
       </c>
       <c r="B112" s="0">
         <v>0</v>
@@ -2308,12 +3728,12 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>222</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>112</v>
+        <v>584</v>
       </c>
       <c r="B113" s="0">
         <v>0.94999999999999996</v>
@@ -2322,12 +3742,12 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>223</v>
+        <v>695</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>113</v>
+        <v>585</v>
       </c>
       <c r="B114" s="0">
         <v>0.75</v>
@@ -2336,12 +3756,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>224</v>
+        <v>696</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>114</v>
+        <v>586</v>
       </c>
       <c r="B115" s="0">
         <v>0.5</v>
@@ -2350,12 +3770,12 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>225</v>
+        <v>697</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>115</v>
+        <v>587</v>
       </c>
       <c r="B116" s="0">
         <v>0.84999999999999998</v>
@@ -2364,12 +3784,12 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>226</v>
+        <v>698</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>116</v>
+        <v>588</v>
       </c>
       <c r="B117" s="0">
         <v>0.5</v>
@@ -2381,7 +3801,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>117</v>
+        <v>589</v>
       </c>
       <c r="B118" s="0">
         <v>0.94999999999999996</v>
@@ -2390,12 +3810,12 @@
         <v>0</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>227</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>118</v>
+        <v>590</v>
       </c>
       <c r="B119" s="0">
         <v>0</v>
@@ -2404,12 +3824,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>228</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>119</v>
+        <v>591</v>
       </c>
       <c r="B120" s="0">
         <v>0.0016249999999999999</v>
@@ -2418,12 +3838,12 @@
         <v>0</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>229</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>120</v>
+        <v>592</v>
       </c>
       <c r="B121" s="0">
         <v>1.00496293</v>
@@ -2432,12 +3852,12 @@
         <v>0</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>230</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>121</v>
+        <v>593</v>
       </c>
       <c r="B122" s="0">
         <v>0.80000000000000004</v>
@@ -2446,12 +3866,12 @@
         <v>0</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>231</v>
+        <v>703</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>122</v>
+        <v>594</v>
       </c>
       <c r="B123" s="0">
         <v>0.90000000000000002</v>
@@ -2460,12 +3880,12 @@
         <v>0</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>232</v>
+        <v>704</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>123</v>
+        <v>595</v>
       </c>
       <c r="B124" s="0">
         <v>0.90000000000000002</v>
@@ -2474,12 +3894,12 @@
         <v>0</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>233</v>
+        <v>705</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>124</v>
+        <v>596</v>
       </c>
       <c r="B125" s="0">
         <v>0.80000000000000004</v>
@@ -2488,12 +3908,12 @@
         <v>0</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>234</v>
+        <v>706</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>125</v>
+        <v>597</v>
       </c>
       <c r="B126" s="0">
         <v>0</v>
@@ -2502,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>235</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
